--- a/rhla_analysis/rhla1_3_exp_result/k1.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k1.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02153900370009705</v>
+        <v>0.02153900370009711</v>
       </c>
       <c r="B2" t="n">
         <v>0.257212749562767</v>
@@ -466,12 +466,12 @@
         <v>0.05456095481670929</v>
       </c>
       <c r="D2" t="n">
-        <v>11.94171992094546</v>
+        <v>11.94171992094543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01008299197591492</v>
+        <v>0.01008299197591496</v>
       </c>
       <c r="B3" t="n">
         <v>0.223867932958438</v>
@@ -480,12 +480,12 @@
         <v>0.07374254049445865</v>
       </c>
       <c r="D3" t="n">
-        <v>22.20253011141809</v>
+        <v>22.202530111418</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01714439809057502</v>
+        <v>0.01714439809057505</v>
       </c>
       <c r="B4" t="n">
         <v>0.1528893298309933</v>
@@ -494,12 +494,12 @@
         <v>0.05583972719522592</v>
       </c>
       <c r="D4" t="n">
-        <v>8.917742636590013</v>
+        <v>8.917742636589999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01283884817019597</v>
+        <v>0.01283884817019594</v>
       </c>
       <c r="B5" t="n">
         <v>0.1539027349547995</v>
@@ -508,12 +508,12 @@
         <v>0.04816709292412617</v>
       </c>
       <c r="D5" t="n">
-        <v>11.98726964557993</v>
+        <v>11.98726964557996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01338001986376172</v>
+        <v>0.01338001986376168</v>
       </c>
       <c r="B6" t="n">
         <v>0.1730661994756314</v>
@@ -522,54 +522,54 @@
         <v>0.03793691389599318</v>
       </c>
       <c r="D6" t="n">
-        <v>12.93467433066835</v>
+        <v>12.93467433066839</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02460222720556528</v>
+        <v>0.02460222720556523</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1956687902992152</v>
+        <v>0.1956687902992151</v>
       </c>
       <c r="C7" t="n">
         <v>0.04390451832907076</v>
       </c>
       <c r="D7" t="n">
-        <v>7.953295799778358</v>
+        <v>7.953295799778373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02326008950351246</v>
+        <v>0.02326008950351242</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1579063819777284</v>
+        <v>0.1579063819777285</v>
       </c>
       <c r="C8" t="n">
         <v>0.07331628303495311</v>
       </c>
       <c r="D8" t="n">
-        <v>6.788726326864877</v>
+        <v>6.788726326864889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02248523950240984</v>
+        <v>0.02248523950240972</v>
       </c>
       <c r="B9" t="n">
-        <v>0.166535883403071</v>
+        <v>0.1665358834030709</v>
       </c>
       <c r="C9" t="n">
         <v>0.06180733162830349</v>
       </c>
       <c r="D9" t="n">
-        <v>7.406453615280486</v>
+        <v>7.406453615280524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.008926092199409973</v>
+        <v>0.008926092199409961</v>
       </c>
       <c r="B10" t="n">
         <v>0.1607453621410214</v>
@@ -578,12 +578,12 @@
         <v>0.06436487638533675</v>
       </c>
       <c r="D10" t="n">
-        <v>18.00848104074556</v>
+        <v>18.00848104074559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.02319263264282504</v>
+        <v>0.02319263264282505</v>
       </c>
       <c r="B11" t="n">
         <v>0.2078495065543911</v>
@@ -592,7 +592,7 @@
         <v>0.05967604433077579</v>
       </c>
       <c r="D11" t="n">
-        <v>8.961876374939788</v>
+        <v>8.961876374939783</v>
       </c>
     </row>
   </sheetData>
